--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Fgf9</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.883656666666667</v>
+        <v>0.7364236666666667</v>
       </c>
       <c r="H2">
-        <v>5.650970000000001</v>
+        <v>2.209271</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9917500467982164</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9944848646626661</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.743825</v>
+        <v>5.978421000000001</v>
       </c>
       <c r="N2">
-        <v>20.231475</v>
+        <v>17.935263</v>
       </c>
       <c r="O2">
-        <v>0.06175298453338176</v>
+        <v>0.05704457007880161</v>
       </c>
       <c r="P2">
-        <v>0.06809253940846915</v>
+        <v>0.06242884486533885</v>
       </c>
       <c r="Q2">
-        <v>12.70305092008334</v>
+        <v>4.402650713697001</v>
       </c>
       <c r="R2">
-        <v>114.32745828075</v>
+        <v>39.62385642327301</v>
       </c>
       <c r="S2">
-        <v>0.06175298453338176</v>
+        <v>0.05657395504523563</v>
       </c>
       <c r="T2">
-        <v>0.06809253940846915</v>
+        <v>0.06208454133695308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.883656666666667</v>
+        <v>0.7364236666666667</v>
       </c>
       <c r="H3">
-        <v>5.650970000000001</v>
+        <v>2.209271</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9917500467982164</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9944848646626661</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6378547871531949</v>
+        <v>0.6646576013185088</v>
       </c>
       <c r="P3">
-        <v>0.7033368922862506</v>
+        <v>0.7273927426214574</v>
       </c>
       <c r="Q3">
-        <v>131.2115017930167</v>
+        <v>51.29770035547167</v>
       </c>
       <c r="R3">
-        <v>1180.90351613715</v>
+        <v>461.679303199245</v>
       </c>
       <c r="S3">
-        <v>0.6378547871531949</v>
+        <v>0.6591742072124214</v>
       </c>
       <c r="T3">
-        <v>0.7033368922862506</v>
+        <v>0.7233810732025056</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.883656666666667</v>
+        <v>0.7364236666666667</v>
       </c>
       <c r="H4">
-        <v>5.650970000000001</v>
+        <v>2.209271</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9917500467982164</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9944848646626661</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.263827666666667</v>
+        <v>1.290243</v>
       </c>
       <c r="N4">
-        <v>3.791482999999999</v>
+        <v>3.870729</v>
       </c>
       <c r="O4">
-        <v>0.01157282852869501</v>
+        <v>0.01231116999491725</v>
       </c>
       <c r="P4">
-        <v>0.01276089388411081</v>
+        <v>0.01347318632889677</v>
       </c>
       <c r="Q4">
-        <v>2.380617409834445</v>
+        <v>0.9501654809510001</v>
       </c>
       <c r="R4">
-        <v>21.42555668851</v>
+        <v>8.551489328559001</v>
       </c>
       <c r="S4">
-        <v>0.01157282852869501</v>
+        <v>0.01220960341859999</v>
       </c>
       <c r="T4">
-        <v>0.01276089388411081</v>
+        <v>0.01339887988286779</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.883656666666667</v>
+        <v>0.7364236666666667</v>
       </c>
       <c r="H5">
-        <v>5.650970000000001</v>
+        <v>2.209271</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9917500467982164</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9944848646626661</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.502036</v>
+        <v>27.1166075</v>
       </c>
       <c r="N5">
-        <v>61.004072</v>
+        <v>54.233215</v>
       </c>
       <c r="O5">
-        <v>0.2793061441162328</v>
+        <v>0.2587397603536297</v>
       </c>
       <c r="P5">
-        <v>0.205319788929729</v>
+        <v>0.1887743138075849</v>
       </c>
       <c r="Q5">
-        <v>57.45536345830668</v>
+        <v>19.96931152271084</v>
       </c>
       <c r="R5">
-        <v>344.73218074984</v>
+        <v>119.815869136265</v>
       </c>
       <c r="S5">
-        <v>0.2793061441162328</v>
+        <v>0.2566051694392715</v>
       </c>
       <c r="T5">
-        <v>0.205319788929729</v>
+        <v>0.1877331979187238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.883656666666667</v>
+        <v>0.7364236666666667</v>
       </c>
       <c r="H6">
-        <v>5.650970000000001</v>
+        <v>2.209271</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9917500467982164</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9944848646626661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.038909</v>
+        <v>0.759494</v>
       </c>
       <c r="N6">
-        <v>3.116727</v>
+        <v>2.278482</v>
       </c>
       <c r="O6">
-        <v>0.009513255668495419</v>
+        <v>0.00724689825414258</v>
       </c>
       <c r="P6">
-        <v>0.01048988549144043</v>
+        <v>0.007930912376722157</v>
       </c>
       <c r="Q6">
-        <v>1.95694786391</v>
+        <v>0.5593093562913334</v>
       </c>
       <c r="R6">
-        <v>17.61253077519</v>
+        <v>5.033784206622</v>
       </c>
       <c r="S6">
-        <v>0.009513255668495419</v>
+        <v>0.007187111682687817</v>
       </c>
       <c r="T6">
-        <v>0.01048988549144043</v>
+        <v>0.007887172321615997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.006126</v>
+      </c>
+      <c r="H7">
+        <v>0.012252</v>
+      </c>
+      <c r="I7">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J7">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.978421000000001</v>
+      </c>
+      <c r="N7">
+        <v>17.935263</v>
+      </c>
+      <c r="O7">
+        <v>0.05704457007880161</v>
+      </c>
+      <c r="P7">
+        <v>0.06242884486533885</v>
+      </c>
+      <c r="Q7">
+        <v>0.03662380704600001</v>
+      </c>
+      <c r="R7">
+        <v>0.219742842276</v>
+      </c>
+      <c r="S7">
+        <v>0.0004706150335659774</v>
+      </c>
+      <c r="T7">
+        <v>0.0003443035283857658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.006126</v>
+      </c>
+      <c r="H8">
+        <v>0.012252</v>
+      </c>
+      <c r="I8">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J8">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>69.657865</v>
+      </c>
+      <c r="N8">
+        <v>208.973595</v>
+      </c>
+      <c r="O8">
+        <v>0.6646576013185088</v>
+      </c>
+      <c r="P8">
+        <v>0.7273927426214574</v>
+      </c>
+      <c r="Q8">
+        <v>0.42672408099</v>
+      </c>
+      <c r="R8">
+        <v>2.56034448594</v>
+      </c>
+      <c r="S8">
+        <v>0.00548339410608743</v>
+      </c>
+      <c r="T8">
+        <v>0.004011669418951816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.006126</v>
+      </c>
+      <c r="H9">
+        <v>0.012252</v>
+      </c>
+      <c r="I9">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J9">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.290243</v>
+      </c>
+      <c r="N9">
+        <v>3.870729</v>
+      </c>
+      <c r="O9">
+        <v>0.01231116999491725</v>
+      </c>
+      <c r="P9">
+        <v>0.01347318632889677</v>
+      </c>
+      <c r="Q9">
+        <v>0.007904028618000001</v>
+      </c>
+      <c r="R9">
+        <v>0.047424171708</v>
+      </c>
+      <c r="S9">
+        <v>0.0001015665763172696</v>
+      </c>
+      <c r="T9">
+        <v>7.43064460289825E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.006126</v>
+      </c>
+      <c r="H10">
+        <v>0.012252</v>
+      </c>
+      <c r="I10">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J10">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>27.1166075</v>
+      </c>
+      <c r="N10">
+        <v>54.233215</v>
+      </c>
+      <c r="O10">
+        <v>0.2587397603536297</v>
+      </c>
+      <c r="P10">
+        <v>0.1887743138075849</v>
+      </c>
+      <c r="Q10">
+        <v>0.166116337545</v>
+      </c>
+      <c r="R10">
+        <v>0.6644653501800001</v>
+      </c>
+      <c r="S10">
+        <v>0.002134590914358145</v>
+      </c>
+      <c r="T10">
+        <v>0.001041115888861169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.006126</v>
+      </c>
+      <c r="H11">
+        <v>0.012252</v>
+      </c>
+      <c r="I11">
+        <v>0.008249953201783585</v>
+      </c>
+      <c r="J11">
+        <v>0.005515135337333892</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.759494</v>
+      </c>
+      <c r="N11">
+        <v>2.278482</v>
+      </c>
+      <c r="O11">
+        <v>0.00724689825414258</v>
+      </c>
+      <c r="P11">
+        <v>0.007930912376722157</v>
+      </c>
+      <c r="Q11">
+        <v>0.004652660244</v>
+      </c>
+      <c r="R11">
+        <v>0.027915961464</v>
+      </c>
+      <c r="S11">
+        <v>5.978657145476345E-05</v>
+      </c>
+      <c r="T11">
+        <v>4.374005510615909E-05</v>
       </c>
     </row>
   </sheetData>
